--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comcastcorp-my.sharepoint.com/personal/sethir919_apac_comcast_com/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethir919\Desktop\masking project\Data-Obfuscation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F6FEB-FBA0-4EFA-9269-7EE94FFA9A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44027B-C205-49EA-A482-174D768AFA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="real_data" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Driver's License Number</t>
-  </si>
-  <si>
     <t>Passport Number</t>
   </si>
   <si>
@@ -200,27 +197,9 @@
     <t>kend634@gmail.com</t>
   </si>
   <si>
-    <t>lead774@gmail.cmm</t>
-  </si>
-  <si>
-    <t>king489@gmail.cfm</t>
-  </si>
-  <si>
-    <t>behn854@gmail.cmm</t>
-  </si>
-  <si>
-    <t>lavi714@gmail.cfm</t>
-  </si>
-  <si>
     <t>jame891@gmail.com</t>
   </si>
   <si>
-    <t>bass196@gmail.cfm</t>
-  </si>
-  <si>
-    <t>lara478@gmail.cmm</t>
-  </si>
-  <si>
     <t>smit110@gmail.com</t>
   </si>
   <si>
@@ -263,9 +242,6 @@
     <t>Walls Street</t>
   </si>
   <si>
-    <t>D.NO</t>
-  </si>
-  <si>
     <t>c-20</t>
   </si>
   <si>
@@ -297,6 +273,30 @@
   </si>
   <si>
     <t>Pin code</t>
+  </si>
+  <si>
+    <t>door no</t>
+  </si>
+  <si>
+    <t>Driver License Number</t>
+  </si>
+  <si>
+    <t>bass196@gmail.com</t>
+  </si>
+  <si>
+    <t>lara478@gmail.com</t>
+  </si>
+  <si>
+    <t>lavi714@gmail.com</t>
+  </si>
+  <si>
+    <t>behn854@gmail.com</t>
+  </si>
+  <si>
+    <t>king489@gmail.com</t>
+  </si>
+  <si>
+    <t>lead774@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -681,7 +683,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -702,28 +704,28 @@
         <v>28</v>
       </c>
       <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -749,25 +751,25 @@
         <v>32283</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>15432964088</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2">
         <v>89.74</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="O2">
         <v>625016</v>
@@ -796,25 +798,25 @@
         <v>37809</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>11653894257</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L3">
         <v>56.56</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O3">
         <v>624902</v>
@@ -843,25 +845,25 @@
         <v>38629</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>12546729086</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L4">
         <v>66.5</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O4">
         <v>623917</v>
@@ -890,25 +892,25 @@
         <v>29083</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>26789259789</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="L5">
         <v>94.69</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>623908</v>
@@ -937,25 +939,25 @@
         <v>21457</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>85372897256</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="L6">
         <v>70.86</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>536894</v>
@@ -984,25 +986,25 @@
         <v>29410</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>67387098734</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="L7">
         <v>80.78</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O7">
         <v>456789</v>
@@ -1031,25 +1033,25 @@
         <v>24210</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>52890156238</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <v>61.65</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>345678</v>
@@ -1078,25 +1080,25 @@
         <v>28549</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>62296086118</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L9">
         <v>70.739999999999995</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O9">
         <v>536478</v>
@@ -1125,25 +1127,25 @@
         <v>34783</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>45396802167</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L10">
         <v>50.67</v>
       </c>
       <c r="M10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O10">
         <v>657383</v>
@@ -1172,25 +1174,25 @@
         <v>33239</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>16724390568</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>68.39</v>
       </c>
       <c r="M11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O11">
         <v>643589</v>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58901</v>
+        <v>59157</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19993</v>
+        <v>20249</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34331</v>
+        <v>34587</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97312</v>
+        <v>97568</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8235</v>
+        <v>8491</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95797</v>
+        <v>96053</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49207</v>
+        <v>49463</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>51770</v>
+        <v>52026</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47162</v>
+        <v>47418</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79952</v>
+        <v>80208</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59157</v>
+        <v>59159</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20249</v>
+        <v>20251</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34587</v>
+        <v>34589</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97568</v>
+        <v>97570</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8491</v>
+        <v>8493</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96053</v>
+        <v>96055</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49463</v>
+        <v>49465</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52026</v>
+        <v>52028</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47418</v>
+        <v>47420</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80208</v>
+        <v>80210</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59159</v>
+        <v>59161</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20251</v>
+        <v>20253</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34589</v>
+        <v>34591</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97570</v>
+        <v>97572</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8493</v>
+        <v>8495</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96055</v>
+        <v>96057</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49465</v>
+        <v>49467</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52028</v>
+        <v>52030</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47420</v>
+        <v>47422</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80210</v>
+        <v>80212</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethir919\Desktop\masking project\Data-Obfuscation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F44027B-C205-49EA-A482-174D768AFA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756C114-6A8E-4C30-925F-F70FB6E3D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="real_data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -297,6 +297,48 @@
   </si>
   <si>
     <t>lead774@gmail.com</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>48.8584° N</t>
+  </si>
+  <si>
+    <t>2.2945° E</t>
+  </si>
+  <si>
+    <t>40.6892° N</t>
+  </si>
+  <si>
+    <t>74.0445° W</t>
+  </si>
+  <si>
+    <t>67.8584° S</t>
+  </si>
+  <si>
+    <t>27.2945° S</t>
+  </si>
+  <si>
+    <t>15.6892° E</t>
+  </si>
+  <si>
+    <t>94.2022° E</t>
+  </si>
+  <si>
+    <t>29.2045° S</t>
+  </si>
+  <si>
+    <t>34.0704° W</t>
+  </si>
+  <si>
+    <t>GPS</t>
   </si>
 </sst>
 </file>
@@ -341,10 +383,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,9 +723,12 @@
     <col min="11" max="11" width="18.54296875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="17" max="17" width="24.36328125" customWidth="1"/>
+    <col min="18" max="18" width="13.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -727,8 +774,20 @@
       <c r="O1" t="s">
         <v>79</v>
       </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>57861</v>
       </c>
@@ -774,8 +833,20 @@
       <c r="O2">
         <v>625016</v>
       </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>45037.604166666664</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>18953</v>
       </c>
@@ -821,8 +892,20 @@
       <c r="O3">
         <v>624902</v>
       </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>45037.344270833331</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.92743055555555554</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>33291</v>
       </c>
@@ -868,8 +951,20 @@
       <c r="O4">
         <v>623917</v>
       </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>45037.375</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>96272</v>
       </c>
@@ -915,8 +1010,20 @@
       <c r="O5">
         <v>623908</v>
       </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>44625.37222222222</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.63164351851851852</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7195</v>
       </c>
@@ -962,8 +1069,20 @@
       <c r="O6">
         <v>536894</v>
       </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>44607.402777777781</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0.47951388888888885</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>94757</v>
       </c>
@@ -1009,8 +1128,20 @@
       <c r="O7">
         <v>456789</v>
       </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>44584.263888888891</v>
+      </c>
+      <c r="R7" s="4">
+        <v>6.2731481481481485E-2</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>48167</v>
       </c>
@@ -1056,8 +1187,20 @@
       <c r="O8">
         <v>345678</v>
       </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>44772.385416666664</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0.43086805555555552</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>50730</v>
       </c>
@@ -1103,8 +1246,20 @@
       <c r="O9">
         <v>536478</v>
       </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>45043.375</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0.77106481481481481</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>46122</v>
       </c>
@@ -1150,8 +1305,20 @@
       <c r="O10">
         <v>657383</v>
       </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>44742.402083333334</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0.80219907407407398</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>78912</v>
       </c>
@@ -1197,6 +1364,21 @@
       <c r="O11">
         <v>643589</v>
       </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>44264.333333333336</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S12" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59161</v>
+        <v>59193</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20253</v>
+        <v>20285</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34591</v>
+        <v>34623</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97572</v>
+        <v>97604</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8495</v>
+        <v>8527</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96057</v>
+        <v>96089</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49467</v>
+        <v>49499</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>52030</v>
+        <v>52062</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47422</v>
+        <v>47454</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80212</v>
+        <v>80244</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>

--- a/data/masking-input.xlsx
+++ b/data/masking-input.xlsx
@@ -327,7 +327,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,12 +338,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -382,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -396,20 +390,17 @@
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -737,23 +728,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -858,7 +849,7 @@
       <c r="P2" s="4">
         <v>45037.604166666664</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -911,7 +902,7 @@
       <c r="P3" s="4">
         <v>45037.34427083333</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -964,7 +955,7 @@
       <c r="P4" s="4">
         <v>45037.375</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1017,7 +1008,7 @@
       <c r="P5" s="4">
         <v>44625.37222222222</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1070,7 +1061,7 @@
       <c r="P6" s="4">
         <v>44607.40277777778</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1123,7 +1114,7 @@
       <c r="P7" s="4">
         <v>44584.26388888889</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1176,7 +1167,7 @@
       <c r="P8" s="4">
         <v>44772.385416666664</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1229,7 +1220,7 @@
       <c r="P9" s="4">
         <v>45043.375</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1282,7 +1273,7 @@
       <c r="P10" s="4">
         <v>44742.402083333334</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1335,7 +1326,7 @@
       <c r="P11" s="4">
         <v>44264.333333333336</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1356,7 +1347,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
